--- a/biology/Biologie cellulaire et moléculaire/Chromatide/Chromatide.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Chromatide/Chromatide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une chromatide (Cht) est une molécule d'ADN (le nucléofilament) associée à des protéines histones (PH) et des protéines non-histones (PNH). Une chromatide a la forme d'un bâtonnet qui peut avoir différents degrés de condensation suivant les moments du cycle cellulaire ou l'activité de transcription des gènes.
 Cette unité structurale n'apparaît en tant que chromosome que durant les divisions cellulaires (mitose ou méiose). Le reste du temps, l'ensemble des chromatides forme la chromatine.
